--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H2">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I2">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J2">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>197.2959673937722</v>
+        <v>432.3056365592867</v>
       </c>
       <c r="R2">
-        <v>197.2959673937722</v>
+        <v>3890.750729033581</v>
       </c>
       <c r="S2">
-        <v>0.008660915084124128</v>
+        <v>0.01539134090198486</v>
       </c>
       <c r="T2">
-        <v>0.008660915084124128</v>
+        <v>0.01539134090198487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H3">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I3">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J3">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>105.9082890551309</v>
+        <v>180.131470582784</v>
       </c>
       <c r="R3">
-        <v>105.9082890551309</v>
+        <v>1621.183235245056</v>
       </c>
       <c r="S3">
-        <v>0.004649171041497505</v>
+        <v>0.006413205464961057</v>
       </c>
       <c r="T3">
-        <v>0.004649171041497505</v>
+        <v>0.006413205464961062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H4">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I4">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J4">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>8.581275229329592</v>
+        <v>14.99515088286533</v>
       </c>
       <c r="R4">
-        <v>8.581275229329592</v>
+        <v>134.956357945788</v>
       </c>
       <c r="S4">
-        <v>0.0003767015466990605</v>
+        <v>0.0005338710847070534</v>
       </c>
       <c r="T4">
-        <v>0.0003767015466990605</v>
+        <v>0.0005338710847070538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H5">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I5">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J5">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>8.493884404054626</v>
+        <v>14.052235540536</v>
       </c>
       <c r="R5">
-        <v>8.493884404054626</v>
+        <v>126.470119864824</v>
       </c>
       <c r="S5">
-        <v>0.0003728652568506857</v>
+        <v>0.0005003005497702224</v>
       </c>
       <c r="T5">
-        <v>0.0003728652568506857</v>
+        <v>0.0005003005497702227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2618.64346320462</v>
+        <v>65.399996</v>
       </c>
       <c r="H6">
-        <v>2618.64346320462</v>
+        <v>196.199988</v>
       </c>
       <c r="I6">
-        <v>0.9573733069007155</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J6">
-        <v>0.9573733069007155</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>13434.60565445719</v>
+        <v>17.37557993727333</v>
       </c>
       <c r="R6">
-        <v>13434.60565445719</v>
+        <v>156.38021943546</v>
       </c>
       <c r="S6">
-        <v>0.5897534566923971</v>
+        <v>0.0006186212983776042</v>
       </c>
       <c r="T6">
-        <v>0.5897534566923971</v>
+        <v>0.0006186212983776045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H7">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>7211.683633422615</v>
+        <v>17341.93142546859</v>
       </c>
       <c r="R7">
-        <v>7211.683633422615</v>
+        <v>156077.3828292173</v>
       </c>
       <c r="S7">
-        <v>0.3165790988417972</v>
+        <v>0.6174233132665304</v>
       </c>
       <c r="T7">
-        <v>0.3165790988417972</v>
+        <v>0.6174233132665305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H8">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>584.3304870408815</v>
+        <v>7225.9701152128</v>
       </c>
       <c r="R8">
-        <v>584.3304870408815</v>
+        <v>65033.7310369152</v>
       </c>
       <c r="S8">
-        <v>0.02565098920255842</v>
+        <v>0.2572656009668812</v>
       </c>
       <c r="T8">
-        <v>0.02565098920255842</v>
+        <v>0.2572656009668813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H9">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>578.3797253963544</v>
+        <v>601.5301590673167</v>
       </c>
       <c r="R9">
-        <v>578.3797253963544</v>
+        <v>5413.77143160585</v>
       </c>
       <c r="S9">
-        <v>0.02538976216396291</v>
+        <v>0.02141622721997647</v>
       </c>
       <c r="T9">
-        <v>0.02538976216396291</v>
+        <v>0.02141622721997648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.202935382502835</v>
+        <v>2623.51945</v>
       </c>
       <c r="H10">
-        <v>0.202935382502835</v>
+        <v>7870.55835</v>
       </c>
       <c r="I10">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J10">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>1.041133272081868</v>
+        <v>563.7051301437001</v>
       </c>
       <c r="R10">
-        <v>1.041133272081868</v>
+        <v>5073.3461712933</v>
       </c>
       <c r="S10">
-        <v>4.57037565433889E-05</v>
+        <v>0.02006954592425161</v>
       </c>
       <c r="T10">
-        <v>4.57037565433889E-05</v>
+        <v>0.02006954592425162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.202935382502835</v>
+        <v>2623.51945</v>
       </c>
       <c r="H11">
-        <v>0.202935382502835</v>
+        <v>7870.55835</v>
       </c>
       <c r="I11">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J11">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>0.5588793576530107</v>
+        <v>697.0210200084167</v>
       </c>
       <c r="R11">
-        <v>0.5588793576530107</v>
+        <v>6273.18918007575</v>
       </c>
       <c r="S11">
-        <v>2.453373336943E-05</v>
+        <v>0.0248159802407006</v>
       </c>
       <c r="T11">
-        <v>2.453373336943E-05</v>
+        <v>0.02481598024070061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H12">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I12">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J12">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>0.04528349603981321</v>
+        <v>1.454774657778333</v>
       </c>
       <c r="R12">
-        <v>0.04528349603981321</v>
+        <v>13.092971920005</v>
       </c>
       <c r="S12">
-        <v>1.987858743865403E-06</v>
+        <v>5.179421871906123E-05</v>
       </c>
       <c r="T12">
-        <v>1.987858743865403E-06</v>
+        <v>5.179421871906125E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H13">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I13">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J13">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>0.04482233356867731</v>
+        <v>0.6061699786239999</v>
       </c>
       <c r="R13">
-        <v>0.04482233356867731</v>
+        <v>5.455529807615999</v>
       </c>
       <c r="S13">
-        <v>1.96761459465519E-06</v>
+        <v>2.158141832201479E-05</v>
       </c>
       <c r="T13">
-        <v>1.96761459465519E-06</v>
+        <v>2.158141832201481E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.93470691999789</v>
+        <v>0.220081</v>
       </c>
       <c r="H14">
-        <v>77.93470691999789</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I14">
-        <v>0.02849284720686172</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J14">
-        <v>0.02849284720686172</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>399.8337570493666</v>
+        <v>0.05046097864366666</v>
       </c>
       <c r="R14">
-        <v>399.8337570493666</v>
+        <v>0.4541488077929999</v>
       </c>
       <c r="S14">
-        <v>0.01755193612578719</v>
+        <v>1.796557941584783E-06</v>
       </c>
       <c r="T14">
-        <v>0.01755193612578719</v>
+        <v>1.796557941584783E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.93470691999789</v>
+        <v>0.220081</v>
       </c>
       <c r="H15">
-        <v>77.93470691999789</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I15">
-        <v>0.02849284720686172</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J15">
-        <v>0.02849284720686172</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>214.6303833522751</v>
+        <v>0.04728792414599999</v>
       </c>
       <c r="R15">
-        <v>214.6303833522751</v>
+        <v>0.425591317314</v>
       </c>
       <c r="S15">
-        <v>0.009421862743788353</v>
+        <v>1.683587951503549E-06</v>
       </c>
       <c r="T15">
-        <v>0.009421862743788353</v>
+        <v>1.68358795150355E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>77.93470691999789</v>
+        <v>0.220081</v>
       </c>
       <c r="H16">
-        <v>77.93470691999789</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I16">
-        <v>0.02849284720686172</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J16">
-        <v>0.02849284720686172</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>17.39054051910551</v>
+        <v>0.05847148688166665</v>
       </c>
       <c r="R16">
-        <v>17.39054051910551</v>
+        <v>0.526243381935</v>
       </c>
       <c r="S16">
-        <v>0.0007634114203783121</v>
+        <v>2.081755386777722E-06</v>
       </c>
       <c r="T16">
-        <v>0.0007634114203783121</v>
+        <v>2.081755386777723E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.250186</v>
+      </c>
+      <c r="H17">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I17">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N17">
+        <v>19.830535</v>
+      </c>
+      <c r="O17">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P17">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q17">
+        <v>1.653774076503334</v>
+      </c>
+      <c r="R17">
+        <v>14.88396668853</v>
+      </c>
+      <c r="S17">
+        <v>5.887917814098926E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.887917814098928E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.250186</v>
+      </c>
+      <c r="H18">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I18">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J18">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.754304</v>
+      </c>
+      <c r="N18">
+        <v>8.262912</v>
+      </c>
+      <c r="O18">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P18">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q18">
+        <v>0.6890883005440001</v>
+      </c>
+      <c r="R18">
+        <v>6.201794704896001</v>
+      </c>
+      <c r="S18">
+        <v>2.453355230261401E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.453355230261403E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.250186</v>
+      </c>
+      <c r="H19">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I19">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J19">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.687851</v>
+      </c>
+      <c r="O19">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P19">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q19">
+        <v>0.05736356342866667</v>
+      </c>
+      <c r="R19">
+        <v>0.5162720708580001</v>
+      </c>
+      <c r="S19">
+        <v>2.042310082075829E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.04231008207583E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.250186</v>
+      </c>
+      <c r="H20">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I20">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J20">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214866</v>
+      </c>
+      <c r="N20">
+        <v>0.644598</v>
+      </c>
+      <c r="O20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q20">
+        <v>0.053756465076</v>
+      </c>
+      <c r="R20">
+        <v>0.483808185684</v>
+      </c>
+      <c r="S20">
+        <v>1.913886865448935E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.913886865448936E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.250186</v>
+      </c>
+      <c r="H21">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I21">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J21">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.797045</v>
+      </c>
+      <c r="O21">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P21">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q21">
+        <v>0.06646983345666667</v>
+      </c>
+      <c r="R21">
+        <v>0.59822850111</v>
+      </c>
+      <c r="S21">
+        <v>2.366519841314658E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.36651984131466E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H22">
+        <v>295.950316</v>
+      </c>
+      <c r="I22">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J22">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>652.0947888554512</v>
+      </c>
+      <c r="R22">
+        <v>5868.85309969906</v>
+      </c>
+      <c r="S22">
+        <v>0.02321647544446407</v>
+      </c>
+      <c r="T22">
+        <v>0.02321647544446407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H23">
+        <v>295.950316</v>
+      </c>
+      <c r="I23">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J23">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>271.7123797200213</v>
+      </c>
+      <c r="R23">
+        <v>2445.411417480192</v>
+      </c>
+      <c r="S23">
+        <v>0.009673752803329182</v>
+      </c>
+      <c r="T23">
+        <v>0.009673752803329187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H24">
+        <v>295.950316</v>
+      </c>
+      <c r="I24">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J24">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>22.61885786787956</v>
+      </c>
+      <c r="R24">
+        <v>203.569720810916</v>
+      </c>
+      <c r="S24">
+        <v>0.0008052972777058236</v>
+      </c>
+      <c r="T24">
+        <v>0.0008052972777058237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="H17">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="I17">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="J17">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="N17">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="O17">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="P17">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="Q17">
-        <v>17.21343704120423</v>
-      </c>
-      <c r="R17">
-        <v>17.21343704120423</v>
-      </c>
-      <c r="S17">
-        <v>0.0007556369169078755</v>
-      </c>
-      <c r="T17">
-        <v>0.0007556369169078755</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H25">
+        <v>295.950316</v>
+      </c>
+      <c r="I25">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J25">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>21.196553532552</v>
+      </c>
+      <c r="R25">
+        <v>190.768981792968</v>
+      </c>
+      <c r="S25">
+        <v>0.0007546590971222234</v>
+      </c>
+      <c r="T25">
+        <v>0.0007546590971222235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H26">
+        <v>295.950316</v>
+      </c>
+      <c r="I26">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J26">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>26.20952440180222</v>
+      </c>
+      <c r="R26">
+        <v>235.88571961622</v>
+      </c>
+      <c r="S26">
+        <v>0.0009331354736840364</v>
+      </c>
+      <c r="T26">
+        <v>0.0009331354736840366</v>
       </c>
     </row>
   </sheetData>
